--- a/TestResults/HolidayGraphQL.xlsx
+++ b/TestResults/HolidayGraphQL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="48">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -77,7 +77,7 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Total number of records matching between DB &amp; Response: 8, below are the test steps for this test case</t>
+    <t>Total number of records matching between DB &amp; Response: 9, below are the test steps for this test case</t>
   </si>
   <si>
     <t xml:space="preserve">Response_holidayId: 8906064967578074397
@@ -149,6 +149,15 @@
 DB_holidayName: TestHDName
 Response_holidayDateParameterText: TestHDDateParam
 DB_holidayDateParameterText: TestHDDateParam
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_holidayId: 8693314735676172661
+DB_holidayId: 8693314735676172661
+Response_holidayName: diwaqweli
+DB_holidayName: diwaqweli
+Response_holidayDateParameterText: Tewertst_01
+DB_holidayDateParameterText: Tewertst_01
 </t>
   </si>
   <si>
@@ -172,13 +181,146 @@
   <si>
     <t>Total number of records matching between DB &amp; Response: 1, below are the test steps for this test case</t>
   </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify  the holiday record with holidayName parameter with holidayId ,holidayDateParamText attributes GraphQL 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"query":"
+	{
+		  holidays (holidayName : \"TestHDName\") 
+		{
+			    holidayId   holidayDateParameterText  
+		}
+	}"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_holidayId: 9013583257821525879
+DB_holidayId: 9013583257821525879
+Response_holidayDateParameterText: TestHDDateParam
+DB_holidayDateParameterText: TestHDDateParam
+</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Verify no results fetched when passing the invalid holidayName parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"query":"
+	{
+		  holidays (holidayName : \"TestHDName1234\") 
+		{
+			    holidayId    holidayName    holidayDateParameterText  
+		}
+	}"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"errors":
+		[
+		]
+	},
+	"data":
+	{
+		"holidays":
+		[
+		]
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Verify the error message when passing the invalid any one of the attribute name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"errors":
+		[
+			{
+				"timestamp":"2020-02-04T13:39:37.473Z
+				[
+					GMT
+				]",
+				"error":"ValidationError",
+				"message":"Validation error of type FieldUndefined: Field 'holidayDateParameterTexts' in type 'Holiday' is undefined @ 'holidays/holidayDateParameterTexts'",
+				"path":null
+			}
+		]
+	},
+	"data":null
+}</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>Verify the error message when passing the multiple(2 attributes) invalid attribute names</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"errors":
+		[
+			{
+				"timestamp":"2020-02-04T13:39:38.784Z
+				[
+					GMT
+				]",
+				"error":"ValidationError",
+				"message":"Validation error of type FieldUndefined: Field 'holidayNames' in type 'Holiday' is undefined @ 'holidays/holidayNames'",
+				"path":null
+			},
+			{
+				"timestamp":"2020-02-04T13:39:38.784Z
+				[
+					GMT
+				]",
+				"error":"ValidationError",
+				"message":"Validation error of type FieldUndefined: Field 'holidayDateParameterTexts' in type 'Holiday' is undefined @ 'holidays/holidayDateParameterTexts'",
+				"path":null
+			}
+		]
+	},
+	"data":null
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="123">
+  <fonts count="189">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -796,6 +938,336 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="4">
@@ -864,7 +1336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1230,6 +1702,204 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="122" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1618,16 +2288,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="101">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s" s="102">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s" s="103">
         <v>13</v>
       </c>
       <c r="D11" t="s" s="104">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s" s="105">
         <v>15</v>
@@ -1639,31 +2309,31 @@
         <v>15</v>
       </c>
       <c r="H11" t="s" s="108">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s" s="109">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J11" t="s" s="110">
         <v>17</v>
       </c>
       <c r="K11" t="s" s="111">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="112">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s" s="113">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s" s="114">
         <v>13</v>
       </c>
       <c r="D12" t="s" s="115">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s" s="116">
         <v>15</v>
@@ -1675,18 +2345,226 @@
         <v>15</v>
       </c>
       <c r="H12" t="s" s="119">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s" s="120">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J12" t="s" s="121">
         <v>17</v>
       </c>
       <c r="K12" t="s" s="122">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="123">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s" s="124">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s" s="125">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="126">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s" s="127">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s" s="128">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s" s="129">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s" s="130">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s" s="131">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s" s="132">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s" s="133">
+        <v>15</v>
+      </c>
+      <c r="L13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="134">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s" s="135">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s" s="136">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="137">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s" s="138">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s" s="139">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s" s="140">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s" s="141">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s" s="142">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s" s="143">
+        <v>17</v>
+      </c>
+      <c r="K14" t="s" s="144">
+        <v>31</v>
+      </c>
+      <c r="L14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="145">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s" s="146">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s" s="147">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="148">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s" s="149">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s" s="150">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s" s="151">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s" s="152">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s" s="153">
+        <v>35</v>
+      </c>
+      <c r="J15" t="s" s="154">
+        <v>17</v>
+      </c>
+      <c r="K15" t="s" s="155">
+        <v>15</v>
+      </c>
+      <c r="L15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="156">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s" s="157">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s" s="158">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="159">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s" s="160">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s" s="161">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s" s="162">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s" s="163">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s" s="164">
+        <v>39</v>
+      </c>
+      <c r="J16" t="s" s="165">
+        <v>17</v>
+      </c>
+      <c r="K16" s="166"/>
+      <c r="L16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="167">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s" s="168">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s" s="169">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s" s="170">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s" s="171">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s" s="172">
+        <v>15</v>
+      </c>
+      <c r="G17" s="173"/>
+      <c r="H17" t="s" s="174">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s" s="175">
+        <v>42</v>
+      </c>
+      <c r="J17" t="s" s="176">
+        <v>43</v>
+      </c>
+      <c r="K17" s="177"/>
+      <c r="L17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="178">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s" s="179">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s" s="180">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="181">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s" s="182">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s" s="183">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s" s="184">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s" s="185">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s" s="186">
+        <v>47</v>
+      </c>
+      <c r="J18" t="s" s="187">
+        <v>43</v>
+      </c>
+      <c r="K18" s="188"/>
+      <c r="L18"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
